--- a/inst/templates/build.mdJSON_Dictionary_Template.xlsx
+++ b/inst/templates/build.mdJSON_Dictionary_Template.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hdvincelette/Documents/GitHub/write-mdJSON-dictionary/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86B419-5106-534B-971F-8C09BCC0CC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2081BB-A320-2140-AE25-BBC8BD11E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1167,7 @@
   <dimension ref="A1:L550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1269,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -2122,6 +2117,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="fcqJQSwFJiOozbHjGvpWoYtoLbZ37lT8uwhbZvwd6iOTCMccxU/uSR/BWnFdLbW/DBQq/a0s2uq6xZ5qmNDgHg==" saltValue="Fn4wbYD91tRk4D/GcYv6rQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:M53" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H52:H1048576 H2:H51" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2377,6 +2373,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="zB3oWzAU/8MADTHlL0nRLD+fUCY7I2ltSPkZjMeWLB8ST7OFSk4p9yF3gur7M2NeQMrBGMfbRT01rDXNFPYjEw==" saltValue="tMOGjp0OYLqKChUf49abnw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -2592,18 +2589,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2626,14 +2623,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8450404-B5A9-4CAE-AD2F-E650514D4870}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2648,4 +2637,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/build.mdJSON_Dictionary_Template.xlsx
+++ b/inst/templates/build.mdJSON_Dictionary_Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2081BB-A320-2140-AE25-BBC8BD11E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5988BF30-F866-6E47-884B-75BAECB8A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1060" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="4240" windowWidth="26940" windowHeight="14580" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="validation_values" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$M$587</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$1:$O$587</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">template_dictionary!$A$1:$M$53</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="111">
   <si>
     <t>Year</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>The maximum range value permissible for this attribute; this may be a numeric or character.</t>
+  </si>
+  <si>
+    <t>fieldWidth</t>
+  </si>
+  <si>
+    <t>missingValue</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L550"/>
+  <dimension ref="A1:N550"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1180,13 +1186,14 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1212,15 +1219,21 @@
         <v>49</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1232,9 +1245,9 @@
     <row r="547" ht="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="550" ht="15.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:M587" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O587" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="decimal" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:K1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -1252,7 +1265,7 @@
           <x14:formula1>
             <xm:f>validation_values!$B$1:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576 F2:F1048576</xm:sqref>
+          <xm:sqref>I2:K1048576 F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2380,6 +2393,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE904D578DFE6844BEAE84BDC2B4097E" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="50ebab51745edbac74153c776eff7922">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="847bd2b6-c417-48b3-84b7-e392c504f3bb" xmlns:ns4="f32a61f4-5698-46d5-9f56-343e6d7dc7d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="48e32a04494ad4991fdbd7a90d4a41aa" ns3:_="" ns4:_="">
     <xsd:import namespace="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
@@ -2588,36 +2616,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
-    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2640,9 +2642,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F5B82C4-8D32-4858-AE49-B9F718EB1758}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82216217-E566-4EBA-B2A2-632151E5C36C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="847bd2b6-c417-48b3-84b7-e392c504f3bb"/>
+    <ds:schemaRef ds:uri="f32a61f4-5698-46d5-9f56-343e6d7dc7d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>